--- a/fuentes/contenidos/grado07/guion04/Escaleta_CN_07_04_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion04/Escaleta_CN_07_04_CO.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_07_04_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10305" windowHeight="4605"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$U$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -704,7 +699,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,16 +920,43 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,33 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,7 +1093,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1309,9 +1304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F2"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,94 +1334,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="15" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:21" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1479,7 +1474,7 @@
       <c r="R3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="25" t="s">
         <v>129</v>
       </c>
       <c r="T3" s="23" t="s">
@@ -1538,7 +1533,7 @@
       <c r="R4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="25" t="s">
         <v>136</v>
       </c>
       <c r="T4" s="23" t="s">
@@ -1597,7 +1592,7 @@
       <c r="R5" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="S5" s="25" t="s">
         <v>143</v>
       </c>
       <c r="T5" s="23" t="s">
@@ -1638,7 +1633,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="48"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="23"/>
       <c r="U6" s="9"/>
     </row>
@@ -1691,7 +1686,7 @@
       <c r="R7" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S7" s="48" t="s">
+      <c r="S7" s="25" t="s">
         <v>151</v>
       </c>
       <c r="T7" s="23" t="s">
@@ -1752,7 +1747,7 @@
       <c r="R8" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S8" s="48" t="s">
+      <c r="S8" s="25" t="s">
         <v>151</v>
       </c>
       <c r="T8" s="23" t="s">
@@ -1813,7 +1808,7 @@
       <c r="R9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="S9" s="48" t="s">
+      <c r="S9" s="25" t="s">
         <v>143</v>
       </c>
       <c r="T9" s="23" t="s">
@@ -1852,7 +1847,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="48"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="23"/>
       <c r="U10" s="9"/>
     </row>
@@ -1903,7 +1898,7 @@
       <c r="R11" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="48" t="s">
+      <c r="S11" s="25" t="s">
         <v>151</v>
       </c>
       <c r="T11" s="23" t="s">
@@ -1962,7 +1957,7 @@
       <c r="R12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S12" s="48" t="s">
+      <c r="S12" s="25" t="s">
         <v>136</v>
       </c>
       <c r="T12" s="23" t="s">
@@ -2021,7 +2016,7 @@
       <c r="R13" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="25" t="s">
         <v>143</v>
       </c>
       <c r="T13" s="23" t="s">
@@ -2080,7 +2075,7 @@
       <c r="R14" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S14" s="48" t="s">
+      <c r="S14" s="25" t="s">
         <v>151</v>
       </c>
       <c r="T14" s="23" t="s">
@@ -2119,7 +2114,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="48"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="23"/>
       <c r="U15" s="9"/>
     </row>
@@ -2170,7 +2165,7 @@
       <c r="R16" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S16" s="48" t="s">
+      <c r="S16" s="25" t="s">
         <v>151</v>
       </c>
       <c r="T16" s="23" t="s">
@@ -2229,7 +2224,7 @@
       <c r="R17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S17" s="48" t="s">
+      <c r="S17" s="25" t="s">
         <v>136</v>
       </c>
       <c r="T17" s="23" t="s">
@@ -2288,7 +2283,7 @@
       <c r="R18" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S18" s="48" t="s">
+      <c r="S18" s="25" t="s">
         <v>151</v>
       </c>
       <c r="T18" s="23" t="s">
@@ -2327,7 +2322,7 @@
       <c r="P19" s="17"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="48"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="23"/>
       <c r="U19" s="9"/>
     </row>
@@ -2378,7 +2373,7 @@
       <c r="R20" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="S20" s="48" t="s">
+      <c r="S20" s="25" t="s">
         <v>183</v>
       </c>
       <c r="T20" s="23" t="s">
@@ -2437,7 +2432,7 @@
       <c r="R21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S21" s="48" t="s">
+      <c r="S21" s="25" t="s">
         <v>136</v>
       </c>
       <c r="T21" s="23" t="s">
@@ -2496,7 +2491,7 @@
       <c r="R22" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="S22" s="48" t="s">
+      <c r="S22" s="25" t="s">
         <v>143</v>
       </c>
       <c r="T22" s="23" t="s">
@@ -2537,7 +2532,7 @@
       <c r="P23" s="17"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="48"/>
+      <c r="S23" s="25"/>
       <c r="T23" s="23"/>
       <c r="U23" s="9"/>
     </row>
@@ -2572,7 +2567,7 @@
       <c r="P24" s="17"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="48"/>
+      <c r="S24" s="25"/>
       <c r="T24" s="23"/>
       <c r="U24" s="9"/>
     </row>
@@ -2627,7 +2622,7 @@
       <c r="R25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S25" s="48" t="s">
+      <c r="S25" s="25" t="s">
         <v>136</v>
       </c>
       <c r="T25" s="23" t="s">
@@ -2686,7 +2681,7 @@
       <c r="R26" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S26" s="48" t="s">
+      <c r="S26" s="25" t="s">
         <v>151</v>
       </c>
       <c r="T26" s="23" t="s">
@@ -2730,7 +2725,7 @@
         <v>8</v>
       </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="50" t="s">
+      <c r="N27" s="27" t="s">
         <v>206</v>
       </c>
       <c r="O27" s="8"/>
@@ -2743,7 +2738,7 @@
       <c r="R27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S27" s="48" t="s">
+      <c r="S27" s="25" t="s">
         <v>136</v>
       </c>
       <c r="T27" s="23" t="s">
@@ -2800,7 +2795,7 @@
       <c r="R28" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="S28" s="48" t="s">
+      <c r="S28" s="25" t="s">
         <v>143</v>
       </c>
       <c r="T28" s="23" t="s">
@@ -2857,7 +2852,7 @@
       <c r="R29" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S29" s="48" t="s">
+      <c r="S29" s="25" t="s">
         <v>151</v>
       </c>
       <c r="T29" s="23" t="s">
@@ -2914,7 +2909,7 @@
       <c r="R30" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="S30" s="48" t="s">
+      <c r="S30" s="25" t="s">
         <v>143</v>
       </c>
       <c r="T30" s="23" t="s">
@@ -2965,7 +2960,7 @@
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="48"/>
+      <c r="S31" s="25"/>
       <c r="T31" s="23"/>
       <c r="U31" s="9"/>
     </row>
@@ -3016,7 +3011,7 @@
       <c r="R32" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S32" s="48" t="s">
+      <c r="S32" s="25" t="s">
         <v>136</v>
       </c>
       <c r="T32" s="23" t="s">
@@ -3064,7 +3059,7 @@
         <v>207</v>
       </c>
       <c r="O33" s="8"/>
-      <c r="P33" s="49" t="s">
+      <c r="P33" s="26" t="s">
         <v>20</v>
       </c>
       <c r="Q33" s="9">
@@ -3073,7 +3068,7 @@
       <c r="R33" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S33" s="48" t="s">
+      <c r="S33" s="25" t="s">
         <v>136</v>
       </c>
       <c r="T33" s="23" t="s">
@@ -3102,7 +3097,7 @@
       <c r="P34" s="17"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="48"/>
+      <c r="S34" s="25"/>
       <c r="T34" s="23"/>
       <c r="U34" s="9"/>
     </row>
@@ -3125,7 +3120,7 @@
       <c r="P35" s="17"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="48"/>
+      <c r="S35" s="25"/>
       <c r="T35" s="23"/>
       <c r="U35" s="9"/>
     </row>
@@ -3148,7 +3143,7 @@
       <c r="P36" s="17"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="48"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="23"/>
       <c r="U36" s="9"/>
     </row>
@@ -3171,7 +3166,7 @@
       <c r="P37" s="17"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="48"/>
+      <c r="S37" s="25"/>
       <c r="T37" s="23"/>
       <c r="U37" s="9"/>
     </row>
@@ -3194,7 +3189,7 @@
       <c r="P38" s="17"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="48"/>
+      <c r="S38" s="25"/>
       <c r="T38" s="23"/>
       <c r="U38" s="9"/>
     </row>
@@ -3217,7 +3212,7 @@
       <c r="P39" s="17"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="48"/>
+      <c r="S39" s="25"/>
       <c r="T39" s="23"/>
       <c r="U39" s="9"/>
     </row>
@@ -3240,7 +3235,7 @@
       <c r="P40" s="17"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="48"/>
+      <c r="S40" s="25"/>
       <c r="T40" s="23"/>
       <c r="U40" s="9"/>
     </row>
@@ -3263,7 +3258,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="48"/>
+      <c r="S41" s="25"/>
       <c r="T41" s="23"/>
       <c r="U41" s="9"/>
     </row>
@@ -3286,7 +3281,7 @@
       <c r="P42" s="17"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="48"/>
+      <c r="S42" s="25"/>
       <c r="T42" s="23"/>
       <c r="U42" s="9"/>
     </row>
@@ -3309,7 +3304,7 @@
       <c r="P43" s="17"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="48"/>
+      <c r="S43" s="25"/>
       <c r="T43" s="23"/>
       <c r="U43" s="9"/>
     </row>
@@ -3332,7 +3327,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="48"/>
+      <c r="S44" s="25"/>
       <c r="T44" s="23"/>
       <c r="U44" s="9"/>
     </row>
@@ -3355,7 +3350,7 @@
       <c r="P45" s="17"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="48"/>
+      <c r="S45" s="25"/>
       <c r="T45" s="23"/>
       <c r="U45" s="9"/>
     </row>
@@ -3378,7 +3373,7 @@
       <c r="P46" s="17"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="48"/>
+      <c r="S46" s="25"/>
       <c r="T46" s="23"/>
       <c r="U46" s="9"/>
     </row>
@@ -3401,7 +3396,7 @@
       <c r="P47" s="17"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="48"/>
+      <c r="S47" s="25"/>
       <c r="T47" s="23"/>
       <c r="U47" s="9"/>
     </row>
@@ -3424,7 +3419,7 @@
       <c r="P48" s="17"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="48"/>
+      <c r="S48" s="25"/>
       <c r="T48" s="23"/>
       <c r="U48" s="9"/>
     </row>
@@ -3447,7 +3442,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="48"/>
+      <c r="S49" s="25"/>
       <c r="T49" s="23"/>
       <c r="U49" s="9"/>
     </row>
@@ -3470,7 +3465,7 @@
       <c r="P50" s="17"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="48"/>
+      <c r="S50" s="25"/>
       <c r="T50" s="23"/>
       <c r="U50" s="9"/>
     </row>
@@ -3493,7 +3488,7 @@
       <c r="P51" s="17"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="48"/>
+      <c r="S51" s="25"/>
       <c r="T51" s="23"/>
       <c r="U51" s="9"/>
     </row>
@@ -3516,7 +3511,7 @@
       <c r="P52" s="17"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="48"/>
+      <c r="S52" s="25"/>
       <c r="T52" s="23"/>
       <c r="U52" s="9"/>
     </row>
@@ -3539,7 +3534,7 @@
       <c r="P53" s="17"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="48"/>
+      <c r="S53" s="25"/>
       <c r="T53" s="23"/>
       <c r="U53" s="9"/>
     </row>
@@ -3562,7 +3557,7 @@
       <c r="P54" s="17"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="48"/>
+      <c r="S54" s="25"/>
       <c r="T54" s="23"/>
       <c r="U54" s="9"/>
     </row>
@@ -3585,7 +3580,7 @@
       <c r="P55" s="17"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="48"/>
+      <c r="S55" s="25"/>
       <c r="T55" s="23"/>
       <c r="U55" s="9"/>
     </row>
@@ -3608,7 +3603,7 @@
       <c r="P56" s="17"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="48"/>
+      <c r="S56" s="25"/>
       <c r="T56" s="23"/>
       <c r="U56" s="9"/>
     </row>
@@ -3631,7 +3626,7 @@
       <c r="P57" s="17"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="48"/>
+      <c r="S57" s="25"/>
       <c r="T57" s="23"/>
       <c r="U57" s="9"/>
     </row>
@@ -3654,7 +3649,7 @@
       <c r="P58" s="17"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="48"/>
+      <c r="S58" s="25"/>
       <c r="T58" s="23"/>
       <c r="U58" s="9"/>
     </row>
@@ -3677,7 +3672,7 @@
       <c r="P59" s="17"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="48"/>
+      <c r="S59" s="25"/>
       <c r="T59" s="23"/>
       <c r="U59" s="9"/>
     </row>
@@ -3700,7 +3695,7 @@
       <c r="P60" s="17"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="48"/>
+      <c r="S60" s="25"/>
       <c r="T60" s="23"/>
       <c r="U60" s="9"/>
     </row>
@@ -3723,7 +3718,7 @@
       <c r="P61" s="17"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="48"/>
+      <c r="S61" s="25"/>
       <c r="T61" s="23"/>
       <c r="U61" s="9"/>
     </row>
@@ -3746,7 +3741,7 @@
       <c r="P62" s="17"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10"/>
-      <c r="S62" s="48"/>
+      <c r="S62" s="25"/>
       <c r="T62" s="23"/>
       <c r="U62" s="9"/>
     </row>
@@ -3769,7 +3764,7 @@
       <c r="P63" s="17"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="10"/>
-      <c r="S63" s="48"/>
+      <c r="S63" s="25"/>
       <c r="T63" s="23"/>
       <c r="U63" s="9"/>
     </row>
@@ -3792,7 +3787,7 @@
       <c r="P64" s="17"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="10"/>
-      <c r="S64" s="48"/>
+      <c r="S64" s="25"/>
       <c r="T64" s="23"/>
       <c r="U64" s="9"/>
     </row>
@@ -3815,7 +3810,7 @@
       <c r="P65" s="17"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="10"/>
-      <c r="S65" s="48"/>
+      <c r="S65" s="25"/>
       <c r="T65" s="23"/>
       <c r="U65" s="9"/>
     </row>
@@ -3838,7 +3833,7 @@
       <c r="P66" s="17"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="10"/>
-      <c r="S66" s="48"/>
+      <c r="S66" s="25"/>
       <c r="T66" s="23"/>
       <c r="U66" s="9"/>
     </row>
@@ -3861,7 +3856,7 @@
       <c r="P67" s="17"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="10"/>
-      <c r="S67" s="48"/>
+      <c r="S67" s="25"/>
       <c r="T67" s="23"/>
       <c r="U67" s="9"/>
     </row>
@@ -3884,7 +3879,7 @@
       <c r="P68" s="17"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="10"/>
-      <c r="S68" s="48"/>
+      <c r="S68" s="25"/>
       <c r="T68" s="23"/>
       <c r="U68" s="9"/>
     </row>
@@ -3907,7 +3902,7 @@
       <c r="P69" s="17"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="10"/>
-      <c r="S69" s="48"/>
+      <c r="S69" s="25"/>
       <c r="T69" s="23"/>
       <c r="U69" s="9"/>
     </row>
@@ -4273,14 +4268,7 @@
     <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:U33"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4295,6 +4283,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
